--- a/code/KCOR_processed_REAL_stk5.xlsx
+++ b/code/KCOR_processed_REAL_stk5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07FF497A-B35C-4995-9235-F68D18F9FF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C517AC-CBFE-46E0-8A94-B4D318841EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2340" windowWidth="18030" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEBUG_1940_curves" sheetId="1" r:id="rId1"/>
@@ -717,6 +717,6091 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DEBUG_1940_curves!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DEBUG_1940_curves!$F$2:$F$349</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="348"/>
+                <c:pt idx="0">
+                  <c:v>2.1830929806389929E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8045929285508959E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5198784097272221E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.922768787053357E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7017177717129561E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.704618551395858E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.65920293823899E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.581282775312626E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5676260969342401E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.197798640336679E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4747350338702881E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.428223646839244E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7715799567669479E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6281871763977991E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.581917218435043E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5517551167083189E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.537807152439224E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8351028968410009E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7892317793827971E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5324365657529071E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4399492226783392E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.065808392140012E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6267885532591409E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2410870107205179E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.218275804568951E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2788530705789849E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2392876923851561E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1487842661817199E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5337409841049981E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4047010211512079E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1388921896484409E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.78623071296123E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.90872217867003E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.441689717583581E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.653064717662564E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.608635957987231E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.2713194301053072E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1040286975717438E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.073899968891501E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9050258044404421E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.342448639644642E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.9827121415030352E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.829810222539777E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4141555221900211E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.556025665681767E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.610982699446662E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.473270660867125E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.68622215976955E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5307199662185939E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3568521031207599E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.517504234895539E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.431449475135192E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3981063622688259E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3468968206146101E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.543921916592724E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.261930576044647E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.72622437357631E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.782690079329709E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.607286364854005E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7887487702352199E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7381955021951441E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5258131686651829E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.761861100623843E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.494822152183701E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.875834205115256E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.409519679063212E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.610568222946073E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7581700531076111E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.1244144242292188E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.819604417999527E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5130247735020139E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7161426954394421E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.4996342355523039E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4469394483314409E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5040628037931731E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.432848981391333E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.545282289961184E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.60294795025334E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.82697276149701E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9412449851171219E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.315500889152341E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9495348966746501E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0091528072329499E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.069119785258919E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.438311385075184E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.664858393505182E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.4615226067567311E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.55748625471468E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.503533303262667E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6187321186568291E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.3951208476301799E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3970699290137441E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.436835936022989E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4767692831989089E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.270383010997346E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.68967022952936E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4072721740453369E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.08550752237669E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3345280536861571E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0499589561498959E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.1848341232227489E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.301037003022998E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.4943101268247831E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.381427475057559E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.460190593298494E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.5777726468098211E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.44536519560609E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.3895590080092641E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.2368822835939161E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.1029625186245861E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.27852466002867E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.183179455349523E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.2040003883872219E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.5748643866778139E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.032092226203458E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8.3822296730930428E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.0730451069143119E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1132595066502609E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4468950414515879E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4098296455844919E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.6079061923997019E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.5122947599968579E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.612934951513602E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.457926985440432E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.4205946767160589E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.659718243069688E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.761434480574742E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.923153178159324E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.4103812002145371E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.9892580067634772E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.674307354993024E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.577287066246057E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.0797088407622931E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.723343285974791E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.4452897605235159E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.64840687506282E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.5705857479411231E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.613391146516084E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.6361983638016359E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.6388798964066041E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.3173094461220441E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.339340070619749E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.178574331463871E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.383407250681531E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.079737603389969E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.2236656945322541E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.3681007902313521E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.247290720974932E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.4740505681236559E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.0456605088881141E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.1699027133533111E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.4795027226959831E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.1935875537628881E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.33923972391058E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.2997730554982459E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.363439172020575E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8.0676858153534269E-4</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.138669206244048E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.2021472837689391E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.037581190728174E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9.3479299528448866E-4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.1851790244105289E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.020047047067885E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.146119863299158E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.1891598689837901E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.336786698972345E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8.7844055885551739E-4</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>9.420138162026376E-4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5.4478784704033525E-4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.0797920291830014E-4</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.0834906649884625E-4</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.1980646921769058E-4</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.679931122823964E-4</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.3008002016256062E-5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.0840994788798038E-4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.0096146064947729E-4</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4.6265773737233539E-4</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4.3587102846276389E-4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6.5988006390417465E-4</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5.7536288407403257E-4</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.7274378134441961E-4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.4187334214942506E-4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.7323913144413667E-4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.4592338487985815E-4</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.8883461107861327E-4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6.55076845553036E-4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.399913116331027E-4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.0935140946474103E-4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.8351107210265093E-4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.3734367591851328E-4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.4941630307131131E-4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.3933700926506014E-4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7.5156641238020697E-4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9.8205795700768506E-4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8.933029584321558E-4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9.8390226570827292E-4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9.9268772154718584E-4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9.8584992390959923E-4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.1512932469210739E-3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.0428468936100139E-3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9.0265104687898591E-4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>9.2310713934989691E-4</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>7.9028072658645905E-4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>7.7123149142791934E-4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>8.2695723055961374E-4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>7.2517173564337319E-4</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>8.6373837009808756E-4</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>8.2106343504519791E-4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>9.7976469844580872E-4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>8.541803427794079E-4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>8.4699475179887435E-4</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>8.5167403463738494E-4</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>6.7795535009852162E-4</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>8.0537019257472485E-4</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>8.0204879791943775E-4</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>9.4574672266970784E-4</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>9.1879959429628307E-4</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>8.6390852920568192E-4</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>8.8856303816836472E-4</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>9.5316338576396649E-4</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>8.1834693918285059E-4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>8.4698361965641227E-4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>7.757269441156713E-4</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>7.643240734071246E-4</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>8.2498007633068082E-4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>7.7756445969290214E-4</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>6.7788995720067548E-4</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>7.3855836618044908E-4</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>7.4713797951395859E-4</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>7.5975623482497467E-4</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>6.275771899829025E-4</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>9.8623696255117368E-4</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>7.7768017600554444E-4</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.088793093019223E-3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>7.7509678617421109E-4</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>8.9286075008383195E-4</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>7.9256605391066649E-4</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>8.3771074293206849E-4</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>8.3841309058506656E-4</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>8.8370735503956411E-4</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>8.926035622996714E-4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>9.0558375634517763E-4</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>9.3485674336556558E-4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>9.5200510990776943E-4</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.022140957717571E-3</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>8.8051134881294028E-4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>8.6904723047295752E-4</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>9.1472254096854413E-4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>8.7468680898720259E-4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>9.5317965186442763E-4</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>8.7219301262837204E-4</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8.7295439735408746E-4</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.0624071931940311E-3</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.326341637682885E-3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.303432509333728E-3</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.189853717984083E-3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.0717318362063991E-3</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.0192375937739849E-3</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>9.8723207388957046E-4</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.0709028662157019E-3</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>8.8578725376976981E-4</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>9.1142974326681274E-4</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.0325138186839391E-3</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>9.5886430617242956E-4</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>9.9302390320717636E-4</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>9.1083014473465314E-4</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>9.6161451330233408E-4</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>9.1253802241760072E-4</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>8.9251827785678838E-4</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>8.5157185972440795E-4</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>8.898990194399067E-4</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>9.826879652086644E-4</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>8.2878131474854017E-4</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>8.2109029060731362E-4</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>8.6369182134157329E-4</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>8.9381255114244355E-4</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>8.5681165263847589E-4</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>9.1639763249932744E-4</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>7.699751756637354E-4</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>8.5899438706118646E-4</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>8.1337474661058733E-4</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8.7308616980893332E-4</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9.4139300836277825E-4</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9.2960365080706501E-4</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>6.682456437151074E-4</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>8.0412388586519501E-4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>8.4289175406197586E-4</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>8.3936360977222727E-4</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>9.9705127389210636E-4</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>8.7488320733882614E-4</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>7.5237828049682471E-4</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>9.0608609094041531E-4</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>8.6858777845902314E-4</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>8.3525100144890476E-4</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>9.3404531186024292E-4</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.011761190206835E-3</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>9.6577894772828282E-4</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>9.8810002480943793E-4</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>9.2485153135717676E-4</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.101420704137828E-3</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>9.4818043745012394E-4</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.1380375079984709E-3</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.049047258719131E-3</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.1878733623702381E-3</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.1634320383329311E-3</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.117332896178635E-3</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.1229015776767169E-3</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.0420134640245929E-3</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.108023649379766E-3</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.009593302886657E-3</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.12772334343947E-3</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.01609688527224E-3</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.290973185139464E-3</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.0227975035036251E-3</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.080482906150475E-3</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>9.2899916695379867E-4</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>9.1676634681707458E-4</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1.01810745621701E-3</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>9.2729078001775849E-4</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.077005923532579E-3</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>9.6421449389696057E-4</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>8.8617868345434211E-4</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>9.5282840745928524E-4</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>8.3067429656390917E-4</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>8.9294747445422434E-4</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>8.056917942712231E-4</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>9.032786813012501E-4</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>8.1589090877016578E-4</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>9.5338562241515528E-4</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>8.4826260796571609E-4</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>8.1360848629025487E-4</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>9.8686102961025621E-4</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1.027703702391183E-3</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>7.4939915038534197E-4</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>7.8989993121657905E-4</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>7.3723058885183E-4</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>9.4666245927795879E-4</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>6.8508995142089438E-4</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>7.4343153752326008E-4</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>6.4151968886295085E-4</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>7.2663079577216781E-4</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>7.9853675945753036E-4</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>4.0181979721494232E-4</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>4.7791112639632681E-4</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>3.3067600900868688E-4</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>3.4866568325063701E-4</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1.1626243113686769E-4</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>2.683291146033649E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC3C-4C75-9F66-626858EF0B8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DEBUG_1940_curves!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MR_adj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DEBUG_1940_curves!$G$2:$G$349</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="348"/>
+                <c:pt idx="0">
+                  <c:v>2.1830929806389929E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.785189175211502E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.508963870479019E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9158524615378761E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7017177717129561E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7107723116763941E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.671204176932924E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.598470209203695E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.590385814466021E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2195758798520201E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5069679309394519E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4647086097096739E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.823395066253143E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.681858092725739E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6399619610218681E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.614500596307413E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.605764684707844E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9231158565983311E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8818137322266721E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6730901644091741E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5847635628056492E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.196317257025006E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8698334575129889E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4707691711461639E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.458782900154955E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5366086191623218E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5065462242541861E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4208809152755731E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.762627101721365E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6313955844539791E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.34897800684642E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9687592452437932E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.111362385093987E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.710663055702129E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9559556150093621E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9169470328675282E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.548932207659292E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.369718341746041E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.3442173625739722E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1611053480267029E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6669210226234509E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2655035429440451E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.098341313036124E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.627542198541602E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7972845549697821E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8674800229447029E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.714007155485697E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9688375553009569E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7937249197032979E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5957233827388611E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7911007292580911E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6956301289835741E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6621121160260599E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.607013159730828E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8487383055444131E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.516528488143115E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0819838495737589E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.1578485574849779E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.952555452405954E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1808433259621271E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1268592104058729E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.873727718420944E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1714097915687021E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.848947808069283E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.3285983205136012E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7560475638766469E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0137671843709478E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.20625655978493E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.6754656483173769E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.2998638265743459E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.9192704688372629E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.184784169346607E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.9160440653711119E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8553912561054789E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9356022652605781E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.850612844152476E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.003032436702547E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.085280958642746E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.3852957352702179E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.543639193664357E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.0449847058588672E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.5729786298577121E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.6612344471930358E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.7505579766867929E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.91890330253367E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.229166327710779E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.9639739083539948E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1004841132840242E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.035041325778537E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.1988731028283969E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9019627787533631E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9114957293447309E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.973001296989661E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.0351566434745269E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7570530367514959E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.345401227286192E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9604614118534729E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5176724044139609E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.872569347182717E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.478589190384639E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.674548613348205E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.8454184459339609E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.127212863259426E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.9736189316646321E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.0936773826171948E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.2704379635634341E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.0874102523075842E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.01405912478634E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.7992379084755051E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.610222831412248E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.873265510213197E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.739826134463125E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.7768340142742889E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.332536222292539E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.534153247126403E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.250474371177108E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.6065646971910659E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.672790893683928E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.1819624559253582E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.1337419026712301E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.4423109543150879E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.305375636181935E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.4676701452189579E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.2385718109824431E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.1891243974698788E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.5668449029879409E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.7339889568945368E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.995774650823348E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.2049400054578458E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.121162524459771E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.6364859187955878E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.4926770512370289E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.2985480391706269E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.7431974859351981E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.3089004349729041E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.6428937204538562E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.527213519651779E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.605463272611735E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.6518334371723588E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.6657684176297821E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.1504438077695732E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.194300778127311E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.9378817606791579E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.2828918972798359E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.7882100353723981E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.0338929369399452E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.2821721397461008E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.0881562826159531E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.476695940686194E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.763258631474536E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.97988544234306E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.5128761535132579E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.0345791984900299E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.291097879093255E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.2316077064043179E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.3493682331262029E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.395176986508101E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.9762546514168621E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.093958213956157E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.813833521213481E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.6400450777407231E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.0868406817185271E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.802563375915132E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.0326629978394202E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.1166087578186219E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.3879622781407981E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.5748628128417249E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.694933342757158E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>9.8375683725246128E-4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.1018286953772469E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.106479069665681E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.6630998795248562E-4</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.0775976204272559E-4</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.158460077865384E-4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.0840994788798038E-4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.0397395910263282E-4</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4.6451065776856321E-4</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4.3674297681179058E-4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6.5988006390417465E-4</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5.7421418393803524E-4</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.6966132739085568E-4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.3803655174503597E-4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.6787877874480291E-4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.4049547768915201E-4</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.8181614633711536E-4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6.459765644441772E-4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.2984061836013848E-4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5.9848942357345562E-4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.6998686325443139E-4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.2348568618999091E-4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.3402745893139344E-4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.203762724454952E-4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7.3083003928171224E-4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9.5305555889040603E-4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8.6519090536508819E-4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9.5103654860561855E-4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9.5761286107818374E-4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9.4911797973108085E-4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.106184131002259E-3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9.9998639599519802E-4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>8.6382447225982154E-4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>8.8163697645227926E-4</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>7.5327083090503933E-4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>7.3364605738071597E-4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>7.8508549853759362E-4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>6.8707927489200646E-4</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>8.1673330575348887E-4</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>7.748307333440656E-4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>9.2274985895889018E-4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>8.0286744095089382E-4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>7.9452408346831279E-4</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>7.9731847405350488E-4</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>6.3341972830322391E-4</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>7.5096227170594278E-4</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>7.463721609875174E-4</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>8.7833776953777289E-4</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>8.5160770365196655E-4</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>7.9913218412343084E-4</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>8.2029710176452508E-4</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>8.7817760552228656E-4</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>7.524619477040016E-4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>7.7723824889807595E-4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>7.1042805441130959E-4</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6.9858754511166552E-4</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>7.5252136324582657E-4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>7.078542576622552E-4</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>6.1588371386421775E-4</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>6.6966317160594856E-4</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>6.7608995002773839E-4</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>6.8613569406866814E-4</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>5.6563329249467058E-4</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>8.8711753110863416E-4</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>6.9812467519467117E-4</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>9.7545983200120711E-4</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>6.9303001273188745E-4</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>7.9673136039852121E-4</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>7.0582286090471551E-4</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>7.4453721698388667E-4</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>7.4367374726736564E-4</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>7.8228489198065086E-4</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>7.885825495514778E-4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>7.9845279202047823E-4</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>8.2261714792418537E-4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>8.3603420474017754E-4</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>8.9583418488123811E-4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>7.7016516479519426E-4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>7.5862013697970785E-4</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>7.9689745760212229E-4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>7.6049735928705991E-4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>8.2708847507639599E-4</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7.5530417115653007E-4</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>7.5445425167732015E-4</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9.1635642480440455E-4</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.141723403745652E-3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.1197630228516461E-3</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.020148084995355E-3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>9.1703909704241244E-4</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>8.7038064967374462E-4</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>8.413663201333741E-4</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>9.108524292261792E-4</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>7.5189888349496336E-4</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>7.7212085646094226E-4</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>8.7295133353390607E-4</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>8.0906494691773234E-4</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>8.3621510702667752E-4</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>7.6546929649015324E-4</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>8.0653545334105116E-4</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>7.6384544956328111E-4</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>7.4559625636905842E-4</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>7.099699626555156E-4</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>7.4044273255686685E-4</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>8.1601559245252119E-4</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>6.8683883745470449E-4</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>6.791064937207229E-4</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>7.1291515521719917E-4</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>7.3630468214774824E-4</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>7.04414927890218E-4</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>7.5189850013200989E-4</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>6.3049849880360298E-4</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>7.0198807183756082E-4</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>6.6337967988760571E-4</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>7.1065802091934652E-4</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>7.6472730144665224E-4</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>7.5364274133572448E-4</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5.4067452776107594E-4</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>6.4931406344953698E-4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>6.7925950637482899E-4</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>6.7506583655941102E-4</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>8.0028662622176454E-4</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>7.008260246601501E-4</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>6.0149007177315913E-4</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>7.2292584347313847E-4</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>6.9162403022810393E-4</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>6.6375138199373793E-4</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>7.4077864076286669E-4</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>8.0081204441847956E-4</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>7.6289081761741399E-4</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>7.789644479176428E-4</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>7.2764712872913195E-4</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>8.648366966230416E-4</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>7.4302587445306966E-4</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>8.9002375031506397E-4</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>8.1878927722650347E-4</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>9.2529307141827645E-4</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>9.0444520178669958E-4</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>8.6687384271767287E-4</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>8.694549385981085E-4</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>8.0521302353975168E-4</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>8.5451278178561572E-4</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>7.7704839487212081E-4</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>8.66236043020597E-4</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7.7893438104214294E-4</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>9.8767724508432974E-4</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>7.8094340069099469E-4</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>8.2334124880531815E-4</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>7.064954531960147E-4</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>6.958005738048334E-4</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>7.711729920986556E-4</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>7.00980938113813E-4</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>8.125319215394846E-4</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>7.2598570402623863E-4</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>6.6589811536056252E-4</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>7.1455104158395612E-4</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>6.2170077058577497E-4</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>6.6697356285537316E-4</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>6.0059777710312677E-4</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>6.7199897971840887E-4</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>6.0577454570992452E-4</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>7.0644702117662926E-4</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>6.2729726887572439E-4</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>6.0046903479017135E-4</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>7.2688083660978477E-4</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>7.5545258990113769E-4</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>5.4977446301090647E-4</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>5.7832972663502845E-4</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>5.3868993328168475E-4</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>6.9033952879286474E-4</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>4.9859424056282844E-4</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>5.3997383222199478E-4</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>4.6502231780264628E-4</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>5.2566574842858715E-4</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>5.7653126832077708E-4</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>2.8952852429623652E-4</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3.4366811557056239E-4</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2.3731591316275709E-4</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>2.4972697213894018E-4</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>8.3105108361921593E-5</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.914203874452123E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC3C-4C75-9F66-626858EF0B8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="971908623"/>
+        <c:axId val="971913903"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="971908623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="971913903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="971913903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="971908623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DEBUG_1940_curves!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smoothed_Raw_MR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DEBUG_1940_curves!$K$2:$K$349</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="348"/>
+                <c:pt idx="0">
+                  <c:v>1.8575832764926171E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8264101755366849E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8061115715132131E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.78512462390261E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.759644392828862E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.682711032365768E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6068617463389911E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.601218824356874E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.53940068183011E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5481334549618589E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.538579533087102E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.528918818111608E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5252278607860699E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5215004927241929E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.601163524787233E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6404756179762971E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7785022328405051E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8620483910794291E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9167510430472051E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.172359959900217E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.383526446651742E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5935850281679578E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.774053799885207E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.955310789010502E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.032354251564103E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.044078221742436E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0864398003688349E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.900452754917497E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.718595717697587E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.554901514460221E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4502560953357949E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3769782234954709E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3094596849711599E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2766569907211988E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.2390729502737659E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2309489226791479E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.2457983091140501E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.300014116735877E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.242641919725809E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.13973510783546E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9904250533608081E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.9010133328078659E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.8393825830422309E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.764303919539184E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7369534639553219E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6354873797770661E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5572548749792821E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5182166265237519E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.520378370641898E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5006384577152809E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.467627722861275E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.4764591298269741E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.423422681861362E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4478607327810761E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5010904798071949E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5123132460520029E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.556975657939506E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5994868004302961E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.621851343936618E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6490937419405081E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6782051889578889E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6969064179002569E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6502601178669449E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6506703501284539E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.646848010487503E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6951253757417619E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.731849281908555E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7007447410183269E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7284098089252939E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.681384812729925E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6860622838884541E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.672749106494341E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.632083972529807E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5596924557463019E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5326103972780291E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.571853895777403E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5999916819871131E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.7019750136871179E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7647994447300189E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8279356951599909E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9074695456434399E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.89409818253269E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.90183698793917E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8561557185966351E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8081858772963299E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.70668992906012E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6653395818078929E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5885855868575469E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5045793548269001E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.504394923695375E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.480883784907091E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.456991335437168E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4735143322890029E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4614816911368369E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.39482861660182E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.387254517358816E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.3438656457508359E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.3123654191508061E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2903988841288161E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.3183897736072461E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2798594292982709E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.286474231704916E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.3480073722590569E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.361862014999049E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.40431202148147E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.410818041527865E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.386058730978064E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.35908554762855E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.334304545165045E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.302280769551136E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.3019172370346359E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.2502581158593061E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.1813411107718119E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1608614636868611E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.16214858719007E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.183194884867935E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.211526158647307E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.262014384148866E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.254193180813747E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.3267985214775149E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.4042615237439061E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.4477052199691239E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.516012562021553E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.5553299919119469E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.619495433483801E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.594804809460655E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.6544252153064831E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.66209676574141E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.677016775842114E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.759406046347893E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.767359176711031E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.7278410867046269E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.6934977988175639E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.7135233672833879E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.666540009752464E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.6617763858535401E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.6694754896236081E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.5741755652935771E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.526175163374197E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.4928357347417411E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.45971078169408E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.398354763625186E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.3496390821272071E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.3161268854309221E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.2671782385019631E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.2867708787521639E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.25006093353571E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.2489769812718901E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.260988915273696E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.275220159070311E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.2896669127426021E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.281125945900964E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.295644502281669E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.2122342539581301E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.223860341127622E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.227890912429575E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.172650720933599E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.1403014011237989E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.121043813686293E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.086078062632498E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.0589131490423211E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.1067120599733771E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.131476746564414E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.0910134059502359E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.079067484134544E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.0303168406040251E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>9.5816686291749613E-4</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>9.0670461534636624E-4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8.1591544108618273E-4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.8826959649850861E-4</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.2904725937899749E-4</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.7913393088235169E-4</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4.0198728332897082E-4</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.7342717058669789E-4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4.7697504359313922E-4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.1355604765534633E-4</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5.238571870584607E-4</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.5941241481359777E-4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.6972003073057608E-4</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5.9032367867509563E-4</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5.9594391920389327E-4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.1171602841717789E-4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.3911675555346204E-4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6.3663066151957806E-4</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6.4087922719341655E-4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6.2972513853819549E-4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.2915893025933148E-4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.2618107671272836E-4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.5035777976087854E-4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.7069925492357788E-4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.1157189385540889E-4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.4323584970529058E-4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7.9005470673573211E-4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>8.2870178791629888E-4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8.7226506891518465E-4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9.3499968689640493E-4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9.7293842243952424E-4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9.9182400175187153E-4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9.8445514954464811E-4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9.7157737056393593E-4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9.4499352377889188E-4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>9.2427721240544527E-4</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>8.9169243887216704E-4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>8.5574807926929375E-4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>8.2802514694869174E-4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>8.3766435339454465E-4</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>8.2904850382323344E-4</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>8.3613775697478541E-4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>8.4619307487596856E-4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>8.2756783981833204E-4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>8.3759264693475106E-4</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>8.298814504124198E-4</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>8.4546686136548351E-4</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>8.3784622334679272E-4</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>8.39062246650077E-4</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>8.4425828244626328E-4</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>8.5694445133708598E-4</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>8.7449339997262713E-4</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>8.7969507835783801E-4</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>8.764048466323673E-4</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>8.5372701547454437E-4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>8.4199957572884412E-4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>8.3120656703974667E-4</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>8.0487243191878556E-4</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>7.7804680447084574E-4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>7.6914568451223427E-4</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>7.5824226140830463E-4</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>7.3972354214170844E-4</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>7.6746265328471463E-4</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>7.615501657440726E-4</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>8.0045374490986265E-4</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>8.126045985315547E-4</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>8.318923965194775E-4</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>8.3757090581906596E-4</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>8.4731521933245277E-4</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>8.7366970690772321E-4</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>8.6085350596877205E-4</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>8.7521892925553784E-4</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>8.5231776217128226E-4</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>8.7228775682020158E-4</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>8.7968080179819368E-4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>9.0837766477405691E-4</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>9.1372774050916584E-4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>9.1755700799515223E-4</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>9.2143390623627476E-4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>9.1919431207221607E-4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>9.2514379901212232E-4</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>9.1731083266997319E-4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>9.0742949360076287E-4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>9.1246277303532028E-4</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>9.6819155914406349E-4</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.02248971900166E-3</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.0568811161286019E-3</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.081511744531002E-3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.089768987269696E-3</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.104148869927346E-3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.128892428535048E-3</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.1068149361070151E-3</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.0549509493050059E-3</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.0210861129737829E-3</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>9.9221243649732604E-4</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>9.8237394487242307E-4</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>9.6882301374250665E-4</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>9.6562081866910206E-4</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>9.4582521319433943E-4</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>9.4666659120521671E-4</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>9.3918435576241608E-4</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>9.2135750585691206E-4</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>9.2433546323644148E-4</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>9.0380513967911185E-4</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>8.9258765791319443E-4</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>8.8034732141809935E-4</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>8.7800663750870476E-4</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>8.7354330935641566E-4</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>8.8164653095328062E-4</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>8.666560504812593E-4</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>8.5119435321282454E-4</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>8.4926853219558038E-4</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>8.5576801709578282E-4</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>8.6548066547343348E-4</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>8.6995455293151106E-4</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8.4638380181609012E-4</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>8.3234958348682355E-4</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>8.4146415578660355E-4</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>8.3901030862548363E-4</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>8.6196987453567356E-4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>8.6219450422691016E-4</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>8.3856766324366596E-4</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>8.3562796826033479E-4</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>8.6067073510332425E-4</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>8.6456162455128798E-4</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>8.7595581927607134E-4</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>8.9750551683039732E-4</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>8.9359647605991932E-4</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>9.0774857824374574E-4</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>9.2930773460128983E-4</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>9.5372456125096636E-4</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>9.6367364362485389E-4</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.00152195694355E-3</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.015897200300911E-3</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.0379112218213359E-3</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.0626178581469171E-3</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.078771967068067E-3</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.1035282228580091E-3</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.096102317843855E-3</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.1160827193350601E-3</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.100027193696083E-3</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.1098617042861259E-3</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.0883896446488761E-3</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.1043322879996931E-3</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.092515363915317E-3</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.0872130299745359E-3</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.073086242840687E-3</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.0491790800203501E-3</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.0502433491866451E-3</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.025189278758931E-3</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1.0328029085414729E-3</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>9.9195807213616036E-4</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>9.7488071962999981E-4</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>9.5892390729360112E-4</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>9.46633298494865E-4</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>9.436559394495087E-4</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>9.1710398170628533E-4</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>9.1410246936672167E-4</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>8.8146309252142008E-4</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>8.8010948358619443E-4</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>8.7536997415011612E-4</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>8.5796748400398734E-4</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>8.7749082563478079E-4</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>8.9433535412690056E-4</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>8.8729877364116536E-4</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>8.7312642988058155E-4</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>8.6329388989078953E-4</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>8.6245349449863996E-4</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>8.4205691243053736E-4</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>8.3328479383466293E-4</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>7.9011712624124978E-4</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>7.5248301291387285E-4</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>7.5862521404789645E-4</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>7.1011519729769184E-4</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6.7770026449075389E-4</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>6.0070195820709498E-4</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>5.5864892468581275E-4</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>4.8025278638751372E-4</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>4.0341693921218689E-4</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>3.5724353113218959E-4</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>2.8369465974463281E-4</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>2.6006963225057089E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA68-469E-8412-3971DF5A01BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DEBUG_1940_curves!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smoothed_Adjusted_MR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DEBUG_1940_curves!$L$2:$L$349</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="348"/>
+                <c:pt idx="0">
+                  <c:v>1.8309997454524301E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.806771833846445E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7931415368658691E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7787034134753639E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.759644392828862E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.68878570538051E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.618484394130607E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6186229491082661E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.561750606187202E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5762801500031399E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5722078626403549E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.567976108917677E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5698376726639659E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5716546315244901E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.659914465451266E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7068085259926669E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8570963677984301E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.951353677661663E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.015931348654151E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2930146092876181E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5249920174675862E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7574365447446091E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9599537028674881E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1647411944590279E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2589671207272032E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.283377767982017E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3410875649646809E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1510902736399502E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9641807333309349E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7957556905127911E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6909246323589542E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6198731324532142E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5546443391445879E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5274505400142799E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.494699890174E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4946216893786308E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.520291759112973E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5904521383164161E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5349535682125781E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4273650121300889E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.2661356705646419E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.172152149830115E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1093184511339191E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0305256635815248E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0062648723087472E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8958862876435069E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8117146221173579E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7726738401960061E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7816064538148341E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.764823056621917E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7322317949756299E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7489465246484121E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.692208940318926E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.7274754943552291E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.797450661385787E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.817426540073713E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.877854480349933E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9360910373846479E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.97024920626575E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.0105758510312981E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.053454952897063E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0838334968413231E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.0338669020519219E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0417166826544961E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0443424588937708E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.1118689087868429E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.1654104448952691E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.134195855946445E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.176741513921992E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.1251630690149489E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.1387683842065729E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1295407292583608E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.085271685332883E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.9999729414678989E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.972340615865134E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.030146265541649E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.073948079450879E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.214105634288721E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.3041222495689918E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.3951685198694951E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.5084056847424091E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.4998137529221439E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.5190886860517142E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.4674569129016898E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.412366256391203E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.2851767673129002E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2378603465312359E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1424258337339442E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.0364571628321551E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.043558347683981E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.018883054709617E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.993481254976625E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0233664928968899E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.014088596554929E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.9291724112589189E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.925623349875766E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.872130203240404E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.8348475161106899E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.810648632963593E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.856602923906131E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.8088496867245661E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.824762302602247E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.9189447829889711E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.9456661342319641E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.0135565391306092E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.0301878395735549E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.0017592883373701E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.969890182992698E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.9409537600752851E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.901208964612234E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.907539786705681E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.838463079257967E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.7433940124318671E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.71935528926726E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.7274754943552291E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.765108971404795E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.8138987295728791E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.896310929205089E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.8913620923517169E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.0080763733018991E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.1329871844354329E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.2069139104186029E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.3193861200458592E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.3881291117043338E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.4956287835921952E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.466452732876814E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.5678958363412482E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.589116360865916E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.6217886187902529E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.7605228675708429E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.7830120729967242E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.730606189058289E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.6859932189267112E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.7275662553582279E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.6623553688109049E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.6643290812551671E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.6863359951119462E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.5421340812931911E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.4735156926903872E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.4282159803834468E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.3829070844890148E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.2909871908043042E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.2191565613901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.1718661667142502E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.0986402951794969E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.1387820329100918E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.0852661264947948E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.0909793414057012E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.1187103042767919E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.150356576918074E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.1825684451075131E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.1759411386789119E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.208544605437404E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.0738238857624471E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.1012715698865338E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.1158024227302011E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.027911518251184E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.9790874607221801E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.9526882717012721E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.8986126717224869E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.857807350506795E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.9486775433353999E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.999474975119344E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.9349307619869361E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.9206531827787551E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.84050136928129E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.717795638753255E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.6314027014777629E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.4733485670596501E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.2473373890713221E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>9.6224314559371753E-4</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8.7460566647839957E-4</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>7.3643204165156487E-4</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.8658020453228347E-4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4.8080321502754901E-4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.1664428282051193E-4</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5.2595520809691572E-4</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.6053150440586101E-4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.6972003073057608E-4</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5.8914510962111873E-4</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5.9356671509795211E-4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.0805950300332821E-4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.3402808636325652E-4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6.30300886607579E-4</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6.3324042985544061E-4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6.2097704154634621E-4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.1918004585117875E-4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.150190937994237E-4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.3748955450668762E-4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.5611600300338952E-4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.9471018447561737E-4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.2417512480645692E-4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7.6825640801292253E-4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>8.0422834518092132E-4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8.4481507373221744E-4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9.0376748399209844E-4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9.3856136843626758E-4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9.5486946842616299E-4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9.4588295989926901E-4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9.3164601551188968E-4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9.0434563255615316E-4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>8.8275448451493861E-4</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>8.4993329806012149E-4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>8.1404378768902303E-4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>7.8609934259111071E-4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>7.9366278116532469E-4</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>7.8393127895966871E-4</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>7.8905624554791111E-4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>7.9695108604382664E-4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>7.7785362234657717E-4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>7.8570443171253153E-4</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>7.769167366595386E-4</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>7.8992722682648506E-4</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>7.8124433834987476E-4</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>7.8081620951218433E-4</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>7.84083009692457E-4</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>7.9427603243492476E-4</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>8.0892339535551647E-4</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>8.1211044373502355E-4</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>8.0745769421983042E-4</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>7.8499357926719573E-4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>7.7266461903701018E-4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>7.6123753173113666E-4</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>7.3564849767946523E-4</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>7.0971028121504876E-4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>7.0019024243927206E-4</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>6.8888623441681559E-4</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>6.7071965605650227E-4</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>6.9448187769140734E-4</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>6.877557927001326E-4</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>7.214463725735311E-4</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>7.3093568035829015E-4</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>7.4679106789130273E-4</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>7.5038754407761481E-4</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>7.5760200237742846E-4</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>7.7960651093489288E-4</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>7.6663652373789345E-4</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>7.7787359340618768E-4</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>7.5600721311989321E-4</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>7.7217591290680749E-4</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>7.7716576403334301E-4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>8.009161798297863E-4</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>8.0402490885487078E-4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>8.0578248530338407E-4</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>8.0757158401942222E-4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>8.0400035705422757E-4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>8.075886912965E-4</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>7.9915235237515089E-4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>7.88965520609184E-4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>7.9175782029923482E-4</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>8.3843726389911148E-4</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8.836907381821078E-4</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9.1159002614359932E-4</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>9.3097225863617028E-4</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>9.362072885682898E-4</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>9.4666708871958647E-4</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>9.6594918462646615E-4</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>9.451675537107886E-4</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>8.9907957977998965E-4</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>8.6848097599913766E-4</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>8.4223770438907801E-4</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>8.3222148199936724E-4</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>8.1910316985669865E-4</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>8.1476591773214316E-4</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>7.9646958076781053E-4</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>7.9558654681076142E-4</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>7.8772259535095845E-4</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>7.7122785131216278E-4</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>7.7217585131498536E-4</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>7.535177377438301E-4</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>7.4267982100682567E-4</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>7.310328064294955E-4</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>7.2763351134064061E-4</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>7.2248928128410168E-4</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>7.2773546990980277E-4</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>7.1393370675473008E-4</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>6.9979674890342076E-4</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>6.9681949507616073E-4</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>7.0075044904910637E-4</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>7.0728879340757329E-4</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>7.0952556032179007E-4</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>6.8892333693528244E-4</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>6.7614741684466804E-4</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>6.8218681429682202E-4</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>6.7883944574751961E-4</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>6.9602355015688862E-4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>6.9481497537250746E-4</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>6.744256893062967E-4</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>6.7071965605650227E-4</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>6.8944111026946614E-4</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>6.9117523336835332E-4</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>6.9888623810361616E-4</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>7.146501460145526E-4</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>7.101169527490704E-4</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>7.1992305877173663E-4</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>7.3554988473893473E-4</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>7.5336878281101482E-4</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>7.5970801430127392E-4</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>7.8796925951967833E-4</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>7.9768355135885786E-4</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>8.1334191546112583E-4</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>8.3104038716881232E-4</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>8.4198963570655024E-4</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>8.5959248777799102E-4</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>8.5210347435649928E-4</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>8.6590390295471318E-4</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>8.5174346101652039E-4</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>8.5764256362633813E-4</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>8.3937094974116742E-4</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>8.4996565383512216E-4</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>8.3919180292112844E-4</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>8.3345163324388032E-4</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>8.2097976647926005E-4</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>8.0108670179408336E-4</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>8.0029833488951755E-4</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>7.7964716209966958E-4</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>7.8386914930446015E-4</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>7.5136594851005895E-4</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>7.3695632062924124E-4</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>7.2344661062567577E-4</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>7.1274830031326647E-4</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>7.0908804664404266E-4</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>6.8776035667998442E-4</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>6.8414083829296355E-4</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>6.5839547808101834E-4</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>6.560719659896491E-4</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>6.5123614857995631E-4</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>6.3701514169317726E-4</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>6.5020991014019488E-4</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>6.6136844867914154E-4</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>6.5485481918724545E-4</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>6.4310865539837889E-4</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>6.3459692073346351E-4</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>6.3271342990722432E-4</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>6.1651675703661276E-4</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>6.0887616002820819E-4</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>5.7618117130849716E-4</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>5.476415112819575E-4</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>5.5100939814092451E-4</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5.1474556539261819E-4</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>4.9026798591052625E-4</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>4.3369758216663519E-4</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>4.0253068635501271E-4</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3.4535201417017528E-4</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2.895198221409209E-4</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>2.5587073701696721E-4</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>2.0278670598261649E-4</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.8552824519890509E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA68-469E-8412-3971DF5A01BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="971926383"/>
+        <c:axId val="971919183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="971926383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="971919183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="971919183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="971926383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAB9493-0AAB-F936-2536-79DF866CC057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A18619-B054-8939-0118-0CDE2ED8A683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB6C8B2-DDE1-74DB-FDFB-8040937188F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115800" y="7096125"/>
+          <a:ext cx="4972050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1004,7 +7089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -14272,6 +20359,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
